--- a/src/main/java/childhomecare/testdata/TestData.xlsx
+++ b/src/main/java/childhomecare/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\childhomecare\src\main\java\childhomecare\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3C0B0-8ADC-4614-94DD-FF82FA9072A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F20FF4-4D02-431E-BC9F-246654C881FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{5F33CF18-64AC-48D3-809C-C1145116A1C6}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
